--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="3" r:id="rId1"/>
     <sheet name="Usuarios" sheetId="1" r:id="rId2"/>
-    <sheet name="ZeroCode" sheetId="2" r:id="rId3"/>
+    <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="ZC_Login" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -26,7 +27,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Tipo de elemento a crear</t>
@@ -38,7 +39,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Nombre del elemento, este se mostrara al cliente, ademas es el nombre del campo en la base de datos. Los espacios se reemplazan por _</t>
@@ -60,7 +61,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Tipo de elemento a crear</t>
@@ -72,7 +73,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Nombre del elemento, este se mostrara al cliente, ademas es el nombre del campo en la base de datos. Los espacios se reemplazan por _</t>
@@ -94,7 +95,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Input:text</t>
@@ -106,7 +107,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Input:radio</t>
@@ -118,7 +119,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Input:checkbox</t>
@@ -130,7 +131,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Input:select</t>
@@ -142,7 +143,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>Input:hidden</t>
@@ -154,7 +155,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Liberation Sans"/>
           </rPr>
           <t>button:button</t>
@@ -165,27 +166,52 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Liberation Sans"/>
+          </rPr>
+          <t>Tipo de elemento a crear</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Liberation Sans"/>
+          </rPr>
+          <t>Nombre del elemento, este se mostrara al cliente, ademas es el nombre del campo en la base de datos. Los espacios se reemplazan por _</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>Nombre Formulario</t>
   </si>
   <si>
-    <t>Se envia</t>
-  </si>
-  <si>
     <t>Tipo de servicio</t>
   </si>
   <si>
     <t>Se guardara en</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>SOAP</t>
   </si>
   <si>
@@ -324,15 +350,9 @@
     <t>Es obligatorio</t>
   </si>
   <si>
-    <t>Modos de envio</t>
-  </si>
-  <si>
     <t>Tipo Web Service</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
     <t>REST</t>
   </si>
   <si>
@@ -358,6 +378,12 @@
   </si>
   <si>
     <t>Paises::nombre</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -371,6 +397,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Liberation Sans"/>
     </font>
     <font>
@@ -392,11 +423,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Liberation Sans"/>
     </font>
   </fonts>
@@ -425,18 +451,18 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -745,7 +771,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -773,76 +799,106 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
+          <x14:formula1>
+            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
+          <x14:formula1>
+            <xm:f>ZeroCode!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
+          <x14:formula1>
+            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
+          <x14:formula1>
+            <xm:f>ZeroCode!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
+          <x14:formula1>
+            <xm:f>ZeroCode!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -850,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -877,71 +933,65 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -950,30 +1000,30 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -982,118 +1032,275 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
       </c>
       <c r="G10">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
+          <x14:formula1>
+            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
+          <x14:formula1>
+            <xm:f>ZeroCode!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
+          <x14:formula1>
+            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
+          <x14:formula1>
+            <xm:f>ZeroCode!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
+          <x14:formula1>
+            <xm:f>ZeroCode!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1106,133 +1313,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
+          <x14:formula1>
+            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
+          <x14:formula1>
+            <xm:f>ZeroCode!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
+          <x14:formula1>
+            <xm:f>ZeroCode!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4:C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
+          <x14:formula1>
+            <xm:f>ZeroCode!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
+          <x14:formula1>
+            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="3" r:id="rId1"/>
-    <sheet name="Usuarios" sheetId="1" r:id="rId2"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId2"/>
     <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="ZC_Login" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -166,42 +165,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="Liberation Sans"/>
-          </rPr>
-          <t>Tipo de elemento a crear</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="Liberation Sans"/>
-          </rPr>
-          <t>Nombre del elemento, este se mostrara al cliente, ademas es el nombre del campo en la base de datos. Los espacios se reemplazan por _</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -254,9 +219,6 @@
     <t>Caja</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
     <t>texto</t>
   </si>
   <si>
@@ -287,12 +249,6 @@
     <t>Circulo</t>
   </si>
   <si>
-    <t>Genero</t>
-  </si>
-  <si>
-    <t>F=Mujer,M=Hombre</t>
-  </si>
-  <si>
     <t>Listado</t>
   </si>
   <si>
@@ -320,21 +276,12 @@
     <t>1=Si</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
-    <t>Clave</t>
-  </si>
-  <si>
     <t>clave</t>
   </si>
   <si>
-    <t>Y la seguridad...</t>
-  </si>
-  <si>
     <t>Observaciones</t>
   </si>
   <si>
@@ -380,10 +327,16 @@
     <t>Paises::nombre</t>
   </si>
   <si>
-    <t>Usuarios</t>
-  </si>
-  <si>
-    <t>Login</t>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>F=Natural,M=Juridica</t>
+  </si>
+  <si>
+    <t>Tipo cliente</t>
+  </si>
+  <si>
+    <t>Fecha registro</t>
   </si>
 </sst>
 </file>
@@ -802,7 +755,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -851,13 +804,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -936,7 +889,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -985,13 +938,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1000,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1014,16 +967,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1032,67 +985,67 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1100,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1114,35 +1067,15 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11">
         <v>100</v>
       </c>
     </row>
@@ -1156,12 +1089,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
-          <x14:formula1>
-            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A4:A11</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
           <x14:formula1>
             <xm:f>ZeroCode!$D$2:$D$3</xm:f>
@@ -1174,17 +1101,23 @@
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
+          <x14:formula1>
+            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A10</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
           <x14:formula1>
             <xm:f>ZeroCode!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E11</xm:sqref>
+          <xm:sqref>E4:E10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
           <x14:formula1>
             <xm:f>ZeroCode!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C11</xm:sqref>
+          <xm:sqref>C4:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1211,16 +1144,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1231,10 +1164,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1245,62 +1178,62 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1311,163 +1244,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
-          <x14:formula1>
-            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
-          <x14:formula1>
-            <xm:f>ZeroCode!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
-          <x14:formula1>
-            <xm:f>ZeroCode!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
-          <x14:formula1>
-            <xm:f>ZeroCode!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4:E5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
-          <x14:formula1>
-            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A4:A5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -860,7 +860,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="3" r:id="rId1"/>
@@ -166,12 +166,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>Nombre Formulario</t>
-  </si>
-  <si>
-    <t>Tipo de servicio</t>
   </si>
   <si>
     <t>Se guardara en</t>
@@ -723,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -746,71 +743,59 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -859,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -880,71 +865,59 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -953,30 +926,30 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -985,95 +958,95 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="K8" t="s">
         <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -1144,96 +1117,96 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="3" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -334,6 +334,21 @@
   </si>
   <si>
     <t>Fecha registro</t>
+  </si>
+  <si>
+    <t>fecha hora</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>Hora registro</t>
+  </si>
+  <si>
+    <t>Ultima actualizacion</t>
+  </si>
+  <si>
+    <t>Pagina web</t>
   </si>
 </sst>
 </file>
@@ -720,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -830,7 +845,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
           <x14:formula1>
-            <xm:f>ZeroCode!$B$2:$B$8</xm:f>
+            <xm:f>ZeroCode!$B$2:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>C4</xm:sqref>
         </x14:dataValidation>
@@ -842,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -983,42 +998,36 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1026,13 +1035,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1040,16 +1052,49 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1078,19 +1123,19 @@
           <x14:formula1>
             <xm:f>ZeroCode!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A10</xm:sqref>
+          <xm:sqref>A13 A4:A6 A8:A10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
           <x14:formula1>
             <xm:f>ZeroCode!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E10</xm:sqref>
+          <xm:sqref>E4:E6 E8:E13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
           <x14:formula1>
-            <xm:f>ZeroCode!$B$2:$B$8</xm:f>
+            <xm:f>ZeroCode!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C10</xm:sqref>
+          <xm:sqref>C4:C13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1100,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1137,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1165,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1173,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -1184,7 +1229,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -1195,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1203,10 +1248,20 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -327,9 +327,6 @@
     <t>Clientes</t>
   </si>
   <si>
-    <t>F=Natural,M=Juridica</t>
-  </si>
-  <si>
     <t>Tipo cliente</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>Pagina web</t>
+  </si>
+  <si>
+    <t>N=Natural,J=Juridica</t>
   </si>
 </sst>
 </file>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -993,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1001,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -1052,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1066,10 +1066,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,10 +1077,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1240,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Paises" sheetId="3" r:id="rId1"/>
-    <sheet name="Clientes" sheetId="1" r:id="rId2"/>
-    <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Config" sheetId="4" r:id="rId1"/>
+    <sheet name="Paises" sheetId="3" r:id="rId2"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId3"/>
+    <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -18,10 +19,163 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Farfan</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Este nombre se muestra en el formulario</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de motor de base de datos que se usa para almacenar los datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -33,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -166,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -349,6 +503,90 @@
   </si>
   <si>
     <t>N=Natural,J=Juridica</t>
+  </si>
+  <si>
+    <t>WS Agregar</t>
+  </si>
+  <si>
+    <t>Motor BD</t>
+  </si>
+  <si>
+    <t>WS Consultar</t>
+  </si>
+  <si>
+    <t>WS Borrar</t>
+  </si>
+  <si>
+    <t>WS Eliminar</t>
+  </si>
+  <si>
+    <t>Por defecto es</t>
+  </si>
+  <si>
+    <t>Nombre campo BD</t>
+  </si>
+  <si>
+    <t>http://agregar</t>
+  </si>
+  <si>
+    <t>http://consultar</t>
+  </si>
+  <si>
+    <t>http://borrar</t>
+  </si>
+  <si>
+    <t>http://eliminar</t>
+  </si>
+  <si>
+    <t>PaNombre</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Se necesitan caracteres</t>
+  </si>
+  <si>
+    <t>Por favor coloca el nombre</t>
+  </si>
+  <si>
+    <t>Ojo la longitud minima</t>
+  </si>
+  <si>
+    <t>Supera la longitud maxima</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>BD Servidor</t>
+  </si>
+  <si>
+    <t>BD Puerto</t>
+  </si>
+  <si>
+    <t>BD Esquema</t>
+  </si>
+  <si>
+    <t>BD Usuario</t>
+  </si>
+  <si>
+    <t>BD Clave</t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>1q2w3e4r</t>
+  </si>
+  <si>
+    <t>Registros por pagina</t>
+  </si>
+  <si>
+    <t>pruebas</t>
   </si>
 </sst>
 </file>
@@ -358,7 +596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +628,25 @@
       <color rgb="FFFFFFFF"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -414,7 +671,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -424,14 +681,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -732,11 +992,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>3306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -745,26 +1071,58 @@
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,16 +1133,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
@@ -796,10 +1154,16 @@
         <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -809,33 +1173,57 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
           <x14:formula1>
             <xm:f>ZeroCode!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>A4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
-          <x14:formula1>
-            <xm:f>ZeroCode!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
           <x14:formula1>
             <xm:f>ZeroCode!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
           <x14:formula1>
@@ -855,12 +1243,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1143,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
     <sheet name="Paises" sheetId="3" r:id="rId2"/>
     <sheet name="Clientes" sheetId="1" r:id="rId3"/>
-    <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="ZeroCode" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -587,6 +587,33 @@
   </si>
   <si>
     <t>pruebas</t>
+  </si>
+  <si>
+    <t>BD Motor</t>
+  </si>
+  <si>
+    <t>BD Charset</t>
+  </si>
+  <si>
+    <t>BD Collation</t>
+  </si>
+  <si>
+    <t>Charset</t>
+  </si>
+  <si>
+    <t>Collation</t>
+  </si>
+  <si>
+    <t>utf8</t>
+  </si>
+  <si>
+    <t>utf8_general_ci</t>
+  </si>
+  <si>
+    <t>latin1</t>
+  </si>
+  <si>
+    <t>latin1_swedish_ci</t>
   </si>
 </sst>
 </file>
@@ -596,7 +623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +674,12 @@
       <color theme="10"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -683,10 +716,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
@@ -993,67 +1027,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3306</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
+          <x14:formula1>
+            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>ZeroCode!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>ZeroCode!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1061,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1533,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1548,7 +1621,7 @@
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1564,8 +1637,14 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1581,8 +1660,14 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1677,14 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1601,7 +1692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1612,7 +1703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +1714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1634,7 +1725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -1642,22 +1733,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
     <sheet name="Paises" sheetId="3" r:id="rId2"/>
     <sheet name="Clientes" sheetId="1" r:id="rId3"/>
-    <sheet name="ZeroCode" sheetId="2" r:id="rId4"/>
+    <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -233,6 +233,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Liberation Sans"/>
+          </rPr>
+          <t>Tipo de elemento a crear</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Liberation Sans"/>
+          </rPr>
+          <t>Nombre del elemento, este se mostrara al cliente, ademas es el nombre del campo en la base de datos. Los espacios se reemplazan por _</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -320,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -362,9 +386,6 @@
   </si>
   <si>
     <t>Mensaje de error longitud maxima</t>
-  </si>
-  <si>
-    <t>Posibles valores</t>
   </si>
   <si>
     <t>Caja</t>
@@ -1029,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1047,28 +1068,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1076,29 +1097,29 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>3306</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1156,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1150,7 +1171,7 @@
     <col min="8" max="8" width="29.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1160,39 +1181,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -1212,66 +1233,66 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s">
-        <v>75</v>
       </c>
       <c r="I4" t="s">
         <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1318,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1329,25 +1350,27 @@
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="9" width="29.375" customWidth="1"/>
-    <col min="10" max="10" width="29.75" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="4" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="8" width="29.375" customWidth="1"/>
+    <col min="9" max="9" width="29.75" customWidth="1"/>
+    <col min="10" max="10" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1367,197 +1390,204 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="D5">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="L13" t="s">
         <v>33</v>
       </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-    </row>
+    </row>
+    <row r="14" spans="1:13"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <headerFooter>
@@ -1590,7 +1620,7 @@
           <x14:formula1>
             <xm:f>ZeroCode!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E6 E8:E13</xm:sqref>
+          <xm:sqref>E4:E6 E8:E10 D23:D25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
           <x14:formula1>
@@ -1623,36 +1653,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1661,86 +1691,86 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
         <v>96</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Clientes" sheetId="1" r:id="rId3"/>
     <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -418,12 +418,6 @@
     <t>Al menos 10</t>
   </si>
   <si>
-    <t>Circulo</t>
-  </si>
-  <si>
-    <t>Listado</t>
-  </si>
-  <si>
     <t>Pais</t>
   </si>
   <si>
@@ -436,9 +430,6 @@
     <t>y el pais?</t>
   </si>
   <si>
-    <t>Cuadrado</t>
-  </si>
-  <si>
     <t>Recibir publicidad</t>
   </si>
   <si>
@@ -635,12 +626,21 @@
   </si>
   <si>
     <t>latin1_swedish_ci</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
@@ -746,7 +746,7 @@
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,7 +836,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -871,7 +870,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1047,14 +1045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1068,28 +1066,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1097,24 +1095,24 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>3306</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1152,14 +1150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
@@ -1181,39 +1179,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -1236,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1251,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1262,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1277,22 +1275,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
         <v>72</v>
       </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" t="s">
-        <v>75</v>
-      </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1304,8 +1302,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
           <x14:formula1>
@@ -1338,14 +1336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1367,7 +1365,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -1390,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1405,10 +1403,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1416,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1468,10 +1466,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1483,7 +1481,7 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1491,33 +1489,33 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1525,16 +1523,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1542,10 +1540,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1556,10 +1554,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1567,24 +1565,24 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13"/>
@@ -1595,8 +1593,8 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
           <x14:formula1>
@@ -1635,14 +1633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -1653,25 +1651,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
@@ -1691,32 +1689,32 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1724,53 +1722,53 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -487,9 +487,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Paises::nombre</t>
-  </si>
-  <si>
     <t>Clientes</t>
   </si>
   <si>
@@ -635,12 +632,15 @@
   </si>
   <si>
     <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Paises::PaNombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
@@ -746,7 +746,7 @@
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,6 +836,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -870,6 +871,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1045,14 +1047,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1066,28 +1068,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1095,24 +1097,24 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>3306</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1150,14 +1152,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
@@ -1179,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1202,16 +1204,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -1234,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1249,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1275,22 +1277,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1302,8 +1304,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId5"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
           <x14:formula1>
@@ -1336,14 +1338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1365,7 +1367,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -1388,7 +1390,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1403,10 +1405,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1466,10 +1468,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1481,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1489,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1497,7 +1499,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1515,7 +1517,7 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1540,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -1554,10 +1556,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1565,15 +1567,15 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1593,8 +1595,8 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
           <x14:formula1>
@@ -1633,14 +1635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -1666,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
@@ -1689,15 +1691,15 @@
         <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1706,15 +1708,15 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
         <v>92</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1722,7 +1724,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1747,7 +1749,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -1755,7 +1757,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -514,37 +514,13 @@
     <t>N=Natural,J=Juridica</t>
   </si>
   <si>
-    <t>WS Agregar</t>
-  </si>
-  <si>
     <t>Motor BD</t>
   </si>
   <si>
-    <t>WS Consultar</t>
-  </si>
-  <si>
-    <t>WS Borrar</t>
-  </si>
-  <si>
-    <t>WS Eliminar</t>
-  </si>
-  <si>
     <t>Por defecto es</t>
   </si>
   <si>
     <t>Nombre campo BD</t>
-  </si>
-  <si>
-    <t>http://agregar</t>
-  </si>
-  <si>
-    <t>http://consultar</t>
-  </si>
-  <si>
-    <t>http://borrar</t>
-  </si>
-  <si>
-    <t>http://eliminar</t>
   </si>
   <si>
     <t>PaNombre</t>
@@ -640,11 +616,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,12 +666,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
@@ -725,7 +695,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -735,18 +705,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -762,7 +729,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -836,7 +803,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -871,7 +837,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1047,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1068,28 +1033,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1097,24 +1062,24 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>3306</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1152,14 +1117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
@@ -1181,19 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1203,18 +1156,6 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1" t="s">
@@ -1236,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1251,10 +1192,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1277,35 +1218,29 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <legacyDrawing r:id="rId1"/>
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
           <x14:formula1>
@@ -1338,14 +1273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1390,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1405,10 +1340,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1468,7 +1403,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -1499,7 +1434,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -1517,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1575,7 +1510,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -1595,8 +1530,8 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
           <x14:formula1>
@@ -1635,14 +1570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -1668,10 +1603,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
@@ -1690,16 +1625,16 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>90</v>
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -1708,15 +1643,15 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1724,7 +1659,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
@@ -206,10 +206,167 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Farfan</author>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -221,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -233,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -245,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -344,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -611,16 +768,40 @@
   </si>
   <si>
     <t>Paises::PaNombre</t>
+  </si>
+  <si>
+    <t>WS Agregar</t>
+  </si>
+  <si>
+    <t>WS Buscar</t>
+  </si>
+  <si>
+    <t>WS Modificar</t>
+  </si>
+  <si>
+    <t>WS Borrar</t>
+  </si>
+  <si>
+    <t>WS Ajax</t>
+  </si>
+  <si>
+    <t>WS Precargar</t>
+  </si>
+  <si>
+    <t>Nombre tabla</t>
+  </si>
+  <si>
+    <t>t_paises</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,12 +846,6 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -706,10 +881,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -729,7 +903,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -803,6 +977,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -837,6 +1012,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1012,14 +1188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1117,14 +1293,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
@@ -1148,6 +1324,9 @@
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -1156,6 +1335,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1" t="s">
@@ -1239,8 +1421,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
           <x14:formula1>
@@ -1273,14 +1455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1299,6 +1481,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -1431,6 +1631,9 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -1496,6 +1699,9 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -1507,6 +1713,9 @@
       <c r="C12" t="s">
         <v>50</v>
       </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -1517,6 +1726,9 @@
       </c>
       <c r="C13" t="s">
         <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
       <c r="L13" t="s">
         <v>30</v>
@@ -1530,8 +1742,8 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
           <x14:formula1>
@@ -1549,13 +1761,13 @@
           <x14:formula1>
             <xm:f>ZeroCode!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A13 A4:A6 A8:A10</xm:sqref>
+          <xm:sqref>A4:A13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
           <x14:formula1>
             <xm:f>ZeroCode!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E6 E8:E10 D23:D25</xm:sqref>
+          <xm:sqref>E4:E13 D23:D25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
           <x14:formula1>
@@ -1570,14 +1782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -1609,7 +1821,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1625,10 +1837,10 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>82</v>
       </c>
     </row>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
-    <sheet name="Paises" sheetId="3" r:id="rId2"/>
+    <sheet name="t_Paises" sheetId="3" r:id="rId2"/>
     <sheet name="Clientes" sheetId="1" r:id="rId3"/>
     <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -767,9 +767,6 @@
     <t>Checkbox</t>
   </si>
   <si>
-    <t>Paises::PaNombre</t>
-  </si>
-  <si>
     <t>WS Agregar</t>
   </si>
   <si>
@@ -788,20 +785,26 @@
     <t>WS Precargar</t>
   </si>
   <si>
-    <t>Nombre tabla</t>
-  </si>
-  <si>
-    <t>t_paises</t>
+    <t>Con login</t>
+  </si>
+  <si>
+    <t>Con barra progreso</t>
+  </si>
+  <si>
+    <t>t_Paises::PaNombre</t>
+  </si>
+  <si>
+    <t>Con navegacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +849,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -881,9 +890,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -894,16 +904,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -977,7 +982,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1012,7 +1016,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,18 +1191,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
@@ -1257,50 +1260,45 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <v>15</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
-          <x14:formula1>
-            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>ZeroCode!$F$2:$F$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>ZeroCode!$G$2:$G$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
@@ -1324,9 +1322,6 @@
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
@@ -1335,9 +1330,6 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1" t="s">
@@ -1421,48 +1413,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
-          <x14:formula1>
-            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
-          <x14:formula1>
-            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
-          <x14:formula1>
-            <xm:f>ZeroCode!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
-          <x14:formula1>
-            <xm:f>ZeroCode!$B$2:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1482,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1655,7 +1617,7 @@
         <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1742,54 +1704,18 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de webservice" prompt="Tipo de conexion al servidor">
-          <x14:formula1>
-            <xm:f>ZeroCode!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Base de datos" prompt="Base de datos utilizar, se puede configurar por formulario">
-          <x14:formula1>
-            <xm:f>ZeroCode!$E$2:$E$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Forma de presentacion del campo" prompt="Solo se permiten los valores de la lista">
-          <x14:formula1>
-            <xm:f>ZeroCode!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A4:A13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Es un campo obligatorio?" prompt="Si el campo es obligatorio, seleccione la opcion si, de lo contrario el campo no es obligatorio">
-          <x14:formula1>
-            <xm:f>ZeroCode!$C$2:$C$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4:E13 D23:D25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tipo de dato" prompt="Selecciona el tipo de dato a recibir">
-          <x14:formula1>
-            <xm:f>ZeroCode!$B$2:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -557,9 +557,6 @@
     <t>Ey! Se te olvido</t>
   </si>
   <si>
-    <t>Muy corto, minimo 5</t>
-  </si>
-  <si>
     <t>Te pasaste</t>
   </si>
   <si>
@@ -572,9 +569,6 @@
     <t>Por favor digita un correo valido</t>
   </si>
   <si>
-    <t>Al menos 10</t>
-  </si>
-  <si>
     <t>Pais</t>
   </si>
   <si>
@@ -593,9 +587,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>1=Si</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -668,9 +659,6 @@
     <t>Pagina web</t>
   </si>
   <si>
-    <t>N=Natural,J=Juridica</t>
-  </si>
-  <si>
     <t>Motor BD</t>
   </si>
   <si>
@@ -795,12 +783,33 @@
   </si>
   <si>
     <t>Con navegacion</t>
+  </si>
+  <si>
+    <t>N==Natural||J==Juridica</t>
+  </si>
+  <si>
+    <t>1==Si</t>
+  </si>
+  <si>
+    <t>Numero empleados</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Se acepta minimo %s empleados</t>
+  </si>
+  <si>
+    <t>Al menos %s</t>
+  </si>
+  <si>
+    <t>Muy corto, minimo %s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-240A]#,##0.00;[Red]&quot;(&quot;[$$-240A]#,##0.00&quot;)&quot;"/>
   </numFmts>
@@ -904,11 +913,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -982,6 +996,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1016,6 +1031,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1191,14 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1212,28 +1228,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1241,33 +1257,33 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>3306</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1291,14 +1307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
@@ -1320,12 +1336,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1351,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1366,10 +1382,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1377,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1392,22 +1408,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1417,14 +1433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1444,27 +1460,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
@@ -1487,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
@@ -1502,10 +1518,10 @@
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1513,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1528,13 +1544,13 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1542,33 +1558,33 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -1580,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1588,53 +1604,53 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1642,10 +1658,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1656,13 +1672,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1670,33 +1686,49 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <headerFooter>
@@ -1708,14 +1740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
@@ -1726,25 +1758,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1764,86 +1796,86 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>Muy corto, minimo %s</t>
+  </si>
+  <si>
+    <t>MySQLi</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -1436,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +1747,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1793,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>77</v>

--- a/zc/test/FormatoExcel2007.xlsx
+++ b/zc/test/FormatoExcel2007.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
-    <sheet name="t_Paises" sheetId="3" r:id="rId2"/>
-    <sheet name="Clientes" sheetId="1" r:id="rId3"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId2"/>
+    <sheet name="Paises" sheetId="3" r:id="rId3"/>
     <sheet name="ZeroCode" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -23,55 +23,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Farfan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Este nombre se muestra en el formulario</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Farfan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Tipo de motor de base de datos que se usa para almacenar los datos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,6 +127,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+URL donde se encuentra el WS a consumir, es del tipo:
+soap|http://path/ws
+rest|http://path/ws</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A3" authorId="1">
       <text>
         <r>
@@ -188,6 +192,30 @@
       </text>
     </comment>
     <comment ref="B3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Liberation Sans"/>
+          </rPr>
+          <t>Nombre del elemento, este se mostrara al cliente, ademas es el nombre del campo en la base de datos. Los espacios se reemplazan por _</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="8"/>
+            <rFont val="Liberation Sans"/>
+          </rPr>
+          <t>Tipo de elemento a crear</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -210,7 +238,55 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Este nombre se muestra en el formulario</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Farfan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tipo de motor de base de datos que se usa para almacenar los datos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,58 +390,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Farfan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-URL donde se encuentra el WS a consumir, es del tipo:
-soap|http://path/ws
-rest|http://path/ws</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Farfan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-URL donde se encuentra el WS a consumir, es del tipo:
-soap|http://path/ws
-rest|http://path/ws</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A3" authorId="1">
       <text>
         <r>
@@ -379,30 +403,6 @@
       </text>
     </comment>
     <comment ref="B3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="Liberation Sans"/>
-          </rPr>
-          <t>Nombre del elemento, este se mostrara al cliente, ademas es el nombre del campo en la base de datos. Los espacios se reemplazan por _</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="8"/>
-            <rFont val="Liberation Sans"/>
-          </rPr>
-          <t>Tipo de elemento a crear</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -512,9 +512,6 @@
     <t>SOAP</t>
   </si>
   <si>
-    <t>MySQL</t>
-  </si>
-  <si>
     <t>Que quieres?</t>
   </si>
   <si>
@@ -566,21 +563,12 @@
     <t>correo</t>
   </si>
   <si>
-    <t>Por favor digita un correo valido</t>
-  </si>
-  <si>
-    <t>Pais</t>
-  </si>
-  <si>
     <t>numero</t>
   </si>
   <si>
     <t>Selecciona un valor de la lista</t>
   </si>
   <si>
-    <t>y el pais?</t>
-  </si>
-  <si>
     <t>Recibir publicidad</t>
   </si>
   <si>
@@ -653,12 +641,6 @@
     <t>Hora registro</t>
   </si>
   <si>
-    <t>Ultima actualizacion</t>
-  </si>
-  <si>
-    <t>Pagina web</t>
-  </si>
-  <si>
     <t>Motor BD</t>
   </si>
   <si>
@@ -674,18 +656,6 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>Se necesitan caracteres</t>
-  </si>
-  <si>
-    <t>Por favor coloca el nombre</t>
-  </si>
-  <si>
-    <t>Ojo la longitud minima</t>
-  </si>
-  <si>
-    <t>Supera la longitud maxima</t>
-  </si>
-  <si>
     <t>Valores</t>
   </si>
   <si>
@@ -779,34 +749,64 @@
     <t>Con barra progreso</t>
   </si>
   <si>
-    <t>t_Paises::PaNombre</t>
-  </si>
-  <si>
     <t>Con navegacion</t>
   </si>
   <si>
-    <t>N==Natural||J==Juridica</t>
-  </si>
-  <si>
     <t>1==Si</t>
   </si>
   <si>
-    <t>Numero empleados</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
-    <t>Se acepta minimo %s empleados</t>
-  </si>
-  <si>
     <t>Al menos %s</t>
   </si>
   <si>
-    <t>Muy corto, minimo %s</t>
-  </si>
-  <si>
     <t>MySQLi</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Página web</t>
+  </si>
+  <si>
+    <t>Última actualización</t>
+  </si>
+  <si>
+    <t>Número empleados</t>
+  </si>
+  <si>
+    <t>Por favor digita un correo válido</t>
+  </si>
+  <si>
+    <t>y el país?</t>
+  </si>
+  <si>
+    <t>N==Natural||J==Jurídica</t>
+  </si>
+  <si>
+    <t>Se acepta mínimo %s empleados</t>
+  </si>
+  <si>
+    <t>Ojo la longitud mínima</t>
+  </si>
+  <si>
+    <t>Supera la longitud máxima</t>
+  </si>
+  <si>
+    <t>Se necesitan carácteres</t>
+  </si>
+  <si>
+    <t>Por favor coloca el nombre del país</t>
+  </si>
+  <si>
+    <t>Muy corto, mínimo %s</t>
+  </si>
+  <si>
+    <t>Países</t>
+  </si>
+  <si>
+    <t>Paises::PaNombre</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1231,62 +1232,62 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>3306</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1294,10 +1295,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1311,10 +1312,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="8" width="29.375" customWidth="1"/>
+    <col min="9" max="9" width="29.75" customWidth="1"/>
+    <col min="10" max="10" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1339,94 +1649,94 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1435,319 +1745,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="8" width="29.375" customWidth="1"/>
-    <col min="9" max="9" width="29.75" customWidth="1"/>
-    <col min="10" max="10" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1761,124 +1765,124 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
